--- a/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC20F06-EEFB-4FC1-B908-92F0E4A858A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D83F5AD-8837-45DF-ABF5-FE89BD14050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81A398DF-1982-46AB-AB6D-42F9821AF089}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC1CDF03-A317-424F-A44E-81532951D8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -86,16 +86,16 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,946 +104,949 @@
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>19,28%</t>
   </si>
   <si>
     <t>47,06%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>49,54%</t>
   </si>
   <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>48,38%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1458,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D597F37-E2D3-43C9-B1B2-EDB826E37744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974F98B2-5B1F-4443-971D-4CD6B11A5069}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,10 +1875,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1893,13 @@
         <v>48958</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -1905,13 +1908,13 @@
         <v>53987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -1920,13 +1923,13 @@
         <v>102945</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1944,13 @@
         <v>204653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -1956,13 +1959,13 @@
         <v>194646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -1971,13 +1974,13 @@
         <v>399299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1995,13 @@
         <v>257234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>381</v>
@@ -2007,13 +2010,13 @@
         <v>295249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>574</v>
@@ -2022,13 +2025,13 @@
         <v>552483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2087,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2096,13 +2099,13 @@
         <v>36787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2111,13 +2114,13 @@
         <v>34742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -2126,13 +2129,13 @@
         <v>71529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2150,13 @@
         <v>38512</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -2162,13 +2165,13 @@
         <v>60524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>138</v>
@@ -2177,13 +2180,13 @@
         <v>99036</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2201,13 @@
         <v>58533</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2213,13 +2216,13 @@
         <v>47051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -2228,13 +2231,13 @@
         <v>105585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2252,13 @@
         <v>188408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2264,13 +2267,13 @@
         <v>230966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -2279,13 +2282,13 @@
         <v>419374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2344,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2353,13 +2356,13 @@
         <v>23945</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2368,13 +2371,13 @@
         <v>48282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2383,13 +2386,13 @@
         <v>72227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2407,13 @@
         <v>48377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2419,13 +2422,13 @@
         <v>49580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -2434,13 +2437,13 @@
         <v>97956</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2458,13 @@
         <v>63282</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
@@ -2470,13 +2473,13 @@
         <v>69359</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>179</v>
@@ -2485,13 +2488,13 @@
         <v>132642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2509,13 @@
         <v>186636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -2521,13 +2524,13 @@
         <v>261176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -2536,13 +2539,13 @@
         <v>447813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,13 +2613,13 @@
         <v>50832</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -2625,13 +2628,13 @@
         <v>38001</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>150</v>
@@ -2640,13 +2643,13 @@
         <v>88833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2664,13 @@
         <v>4084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2676,13 +2679,13 @@
         <v>5780</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2691,13 +2694,13 @@
         <v>9864</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2715,13 @@
         <v>1758</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2727,13 +2730,13 @@
         <v>5728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2742,13 +2745,13 @@
         <v>7486</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2766,13 @@
         <v>140074</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>391</v>
@@ -2778,13 +2781,13 @@
         <v>210005</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -2793,13 +2796,13 @@
         <v>350078</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2867,13 +2870,13 @@
         <v>40865</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -2882,13 +2885,13 @@
         <v>33678</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -2897,13 +2900,13 @@
         <v>74543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2921,13 @@
         <v>29843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -2933,13 +2936,13 @@
         <v>36976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
@@ -2948,13 +2951,13 @@
         <v>66818</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2972,13 @@
         <v>36028</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -2984,13 +2987,13 @@
         <v>38102</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>118</v>
@@ -2999,13 +3002,13 @@
         <v>74130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3023,13 @@
         <v>170488</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -3035,13 +3038,13 @@
         <v>166866</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>484</v>
@@ -3050,13 +3053,13 @@
         <v>337354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3124,13 +3127,13 @@
         <v>44404</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3139,13 +3142,13 @@
         <v>67083</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>148</v>
@@ -3154,13 +3157,13 @@
         <v>111488</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3178,13 @@
         <v>101956</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -3190,13 +3193,13 @@
         <v>106787</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -3205,13 +3208,13 @@
         <v>208743</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3229,13 @@
         <v>157086</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>253</v>
@@ -3241,13 +3244,13 @@
         <v>182046</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>405</v>
@@ -3256,13 +3259,13 @@
         <v>339132</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3280,13 @@
         <v>323988</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>442</v>
@@ -3292,13 +3295,13 @@
         <v>445270</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>740</v>
@@ -3307,13 +3310,13 @@
         <v>769258</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3384,13 @@
         <v>467752</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>618</v>
@@ -3396,13 +3399,13 @@
         <v>513862</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>1058</v>
@@ -3411,13 +3414,13 @@
         <v>981614</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3435,13 @@
         <v>187117</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>235</v>
@@ -3447,13 +3450,13 @@
         <v>190166</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>414</v>
@@ -3462,13 +3465,13 @@
         <v>377283</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3486,13 @@
         <v>104279</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>141</v>
@@ -3498,13 +3501,13 @@
         <v>110133</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>240</v>
@@ -3513,10 +3516,10 @@
         <v>214413</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>293</v>
@@ -3570,7 +3573,7 @@
         <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3641,13 @@
         <v>674421</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H44" s="7">
         <v>984</v>
@@ -3653,7 +3656,7 @@
         <v>748842</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>306</v>
@@ -3710,7 +3713,7 @@
         <v>315</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="M45" s="7">
         <v>1223</v>
@@ -3719,10 +3722,10 @@
         <v>990648</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>318</v>
@@ -3740,13 +3743,13 @@
         <v>644826</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>951</v>
@@ -3755,13 +3758,13 @@
         <v>666999</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>1573</v>
@@ -3770,13 +3773,13 @@
         <v>1311825</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3794,13 @@
         <v>1592808</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>2676</v>
@@ -3806,13 +3809,13 @@
         <v>1898609</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>4266</v>
@@ -3821,13 +3824,13 @@
         <v>3491417</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D83F5AD-8837-45DF-ABF5-FE89BD14050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EDB71B-C0A9-416C-A0E2-B6FBCE92DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC1CDF03-A317-424F-A44E-81532951D8C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E292933F-1AFA-4BF7-AD68-A9B2DDDCC48C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,982 +71,955 @@
     <t>A menudo</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>Apenas</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>48,8%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974F98B2-5B1F-4443-971D-4CD6B11A5069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5597C-6C77-46F5-B12F-512ACE89296F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1384</v>
+        <v>1699</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1597,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2509</v>
+        <v>2586</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1612,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>3893</v>
+        <v>4285</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1633,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>14006</v>
+        <v>16039</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1648,7 +1621,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>13996</v>
+        <v>15019</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1663,7 +1636,7 @@
         <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>28002</v>
+        <v>31058</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1684,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>19206</v>
+        <v>22448</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1699,7 +1672,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="7">
-        <v>19934</v>
+        <v>20980</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1714,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="N6" s="7">
-        <v>39140</v>
+        <v>43428</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1735,7 +1708,7 @@
         <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>225702</v>
+        <v>271257</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1750,7 +1723,7 @@
         <v>453</v>
       </c>
       <c r="I7" s="7">
-        <v>234964</v>
+        <v>251050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1765,7 +1738,7 @@
         <v>728</v>
       </c>
       <c r="N7" s="7">
-        <v>460665</v>
+        <v>522306</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1786,7 +1759,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1801,7 +1774,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1789,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1839,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>8453</v>
+        <v>8491</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1854,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>10684</v>
+        <v>9912</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1869,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>19137</v>
+        <v>18403</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1890,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>48958</v>
+        <v>48107</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1905,7 +1878,7 @@
         <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>53987</v>
+        <v>49752</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1920,16 +1893,16 @@
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>102945</v>
+        <v>97859</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,46 +1914,46 @@
         <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>204653</v>
+        <v>206625</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>194646</v>
+        <v>180881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
       </c>
       <c r="N11" s="7">
-        <v>399299</v>
+        <v>387506</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,46 +1965,46 @@
         <v>193</v>
       </c>
       <c r="D12" s="7">
-        <v>257234</v>
+        <v>255167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>381</v>
       </c>
       <c r="I12" s="7">
-        <v>295249</v>
+        <v>274424</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>574</v>
       </c>
       <c r="N12" s="7">
-        <v>552483</v>
+        <v>529590</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2016,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2031,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2046,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2087,7 +2060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2096,46 +2069,46 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>36787</v>
+        <v>36006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>34742</v>
+        <v>32607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>71529</v>
+        <v>68613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,46 +2120,46 @@
         <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>38512</v>
+        <v>37741</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
       </c>
       <c r="I15" s="7">
-        <v>60524</v>
+        <v>57025</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>138</v>
       </c>
       <c r="N15" s="7">
-        <v>99036</v>
+        <v>94767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,43 +2171,43 @@
         <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>58533</v>
+        <v>57005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>47051</v>
+        <v>44019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
       </c>
       <c r="N16" s="7">
-        <v>105585</v>
+        <v>101024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>114</v>
@@ -2249,7 +2222,7 @@
         <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>188408</v>
+        <v>185298</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -2264,7 +2237,7 @@
         <v>322</v>
       </c>
       <c r="I17" s="7">
-        <v>230966</v>
+        <v>215477</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2279,7 +2252,7 @@
         <v>526</v>
       </c>
       <c r="N17" s="7">
-        <v>419374</v>
+        <v>400775</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -2300,7 +2273,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2315,7 +2288,7 @@
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2330,7 +2303,7 @@
         <v>896</v>
       </c>
       <c r="N18" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2353,46 +2326,46 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>23945</v>
+        <v>22109</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>48282</v>
+        <v>100048</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
       </c>
       <c r="N19" s="7">
-        <v>72227</v>
+        <v>122157</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,46 +2377,46 @@
         <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>48377</v>
+        <v>46270</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
       </c>
       <c r="I20" s="7">
-        <v>49580</v>
+        <v>45987</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>97956</v>
+        <v>92257</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,46 +2428,46 @@
         <v>68</v>
       </c>
       <c r="D21" s="7">
-        <v>63282</v>
+        <v>61725</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
       </c>
       <c r="I21" s="7">
-        <v>69359</v>
+        <v>64515</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>179</v>
       </c>
       <c r="N21" s="7">
-        <v>132642</v>
+        <v>126240</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,46 +2479,46 @@
         <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>186636</v>
+        <v>182453</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
       </c>
       <c r="I22" s="7">
-        <v>261176</v>
+        <v>265006</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
       </c>
       <c r="N22" s="7">
-        <v>447813</v>
+        <v>447459</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2530,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2572,7 +2545,7 @@
         <v>598</v>
       </c>
       <c r="I23" s="7">
-        <v>428397</v>
+        <v>475556</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2587,7 +2560,7 @@
         <v>890</v>
       </c>
       <c r="N23" s="7">
-        <v>750637</v>
+        <v>788113</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2601,7 +2574,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,46 +2583,46 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>50832</v>
+        <v>45878</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
       </c>
       <c r="I24" s="7">
-        <v>38001</v>
+        <v>33788</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>150</v>
       </c>
       <c r="N24" s="7">
-        <v>88833</v>
+        <v>79666</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,46 +2634,46 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>4084</v>
+        <v>3644</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>5780</v>
+        <v>5269</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>9864</v>
+        <v>8913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,46 +2685,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1758</v>
+        <v>1591</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>5728</v>
+        <v>5287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>7486</v>
+        <v>6877</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,46 +2736,46 @@
         <v>201</v>
       </c>
       <c r="D27" s="7">
-        <v>140074</v>
+        <v>127629</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>391</v>
       </c>
       <c r="I27" s="7">
-        <v>210005</v>
+        <v>214435</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
       </c>
       <c r="N27" s="7">
-        <v>350078</v>
+        <v>342065</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2787,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2829,7 +2802,7 @@
         <v>495</v>
       </c>
       <c r="I28" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2844,7 +2817,7 @@
         <v>774</v>
       </c>
       <c r="N28" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2858,7 +2831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2867,46 +2840,46 @@
         <v>60</v>
       </c>
       <c r="D29" s="7">
-        <v>40865</v>
+        <v>39384</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
       </c>
       <c r="I29" s="7">
-        <v>33678</v>
+        <v>31044</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
       </c>
       <c r="N29" s="7">
-        <v>74543</v>
+        <v>70428</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,46 +2891,46 @@
         <v>41</v>
       </c>
       <c r="D30" s="7">
-        <v>29843</v>
+        <v>28921</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
       </c>
       <c r="I30" s="7">
-        <v>36976</v>
+        <v>34704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
       </c>
       <c r="N30" s="7">
-        <v>66818</v>
+        <v>63625</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,46 +2942,46 @@
         <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>36028</v>
+        <v>35022</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
       </c>
       <c r="I31" s="7">
-        <v>38102</v>
+        <v>35671</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="M31" s="7">
         <v>118</v>
       </c>
       <c r="N31" s="7">
-        <v>74130</v>
+        <v>70693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,46 +2993,46 @@
         <v>219</v>
       </c>
       <c r="D32" s="7">
-        <v>170488</v>
+        <v>166310</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
       </c>
       <c r="I32" s="7">
-        <v>166866</v>
+        <v>155636</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>484</v>
       </c>
       <c r="N32" s="7">
-        <v>337354</v>
+        <v>321946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3044,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3086,7 +3059,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3101,7 +3074,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3115,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3124,46 +3097,46 @@
         <v>46</v>
       </c>
       <c r="D34" s="7">
-        <v>44404</v>
+        <v>43216</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
       </c>
       <c r="I34" s="7">
-        <v>67083</v>
+        <v>62278</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>148</v>
       </c>
       <c r="N34" s="7">
-        <v>111488</v>
+        <v>105494</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,46 +3148,46 @@
         <v>101</v>
       </c>
       <c r="D35" s="7">
-        <v>101956</v>
+        <v>100541</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
       </c>
       <c r="I35" s="7">
-        <v>106787</v>
+        <v>100067</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
       </c>
       <c r="N35" s="7">
-        <v>208743</v>
+        <v>200608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,46 +3199,46 @@
         <v>152</v>
       </c>
       <c r="D36" s="7">
-        <v>157086</v>
+        <v>155298</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>253</v>
       </c>
       <c r="I36" s="7">
-        <v>182046</v>
+        <v>169750</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>405</v>
       </c>
       <c r="N36" s="7">
-        <v>339132</v>
+        <v>325048</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,46 +3250,46 @@
         <v>298</v>
       </c>
       <c r="D37" s="7">
-        <v>323988</v>
+        <v>324895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>442</v>
       </c>
       <c r="I37" s="7">
-        <v>445270</v>
+        <v>514358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>740</v>
       </c>
       <c r="N37" s="7">
-        <v>769258</v>
+        <v>839253</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3301,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>627434</v>
+        <v>623950</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3343,7 +3316,7 @@
         <v>955</v>
       </c>
       <c r="I38" s="7">
-        <v>801186</v>
+        <v>846453</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3358,7 +3331,7 @@
         <v>1552</v>
       </c>
       <c r="N38" s="7">
-        <v>1428621</v>
+        <v>1470403</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3372,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3381,46 +3354,46 @@
         <v>440</v>
       </c>
       <c r="D39" s="7">
-        <v>467752</v>
+        <v>395225</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H39" s="7">
         <v>618</v>
       </c>
       <c r="I39" s="7">
-        <v>513862</v>
+        <v>423303</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>1058</v>
       </c>
       <c r="N39" s="7">
-        <v>981614</v>
+        <v>818529</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,46 +3405,46 @@
         <v>179</v>
       </c>
       <c r="D40" s="7">
-        <v>187117</v>
+        <v>158824</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>235</v>
       </c>
       <c r="I40" s="7">
-        <v>190166</v>
+        <v>158290</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>414</v>
       </c>
       <c r="N40" s="7">
-        <v>377283</v>
+        <v>317115</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,46 +3456,46 @@
         <v>99</v>
       </c>
       <c r="D41" s="7">
-        <v>104279</v>
+        <v>88449</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>141</v>
       </c>
       <c r="I41" s="7">
-        <v>110133</v>
+        <v>91319</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="M41" s="7">
         <v>240</v>
       </c>
       <c r="N41" s="7">
-        <v>214413</v>
+        <v>179768</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,46 +3507,46 @@
         <v>44</v>
       </c>
       <c r="D42" s="7">
-        <v>100280</v>
+        <v>286222</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>67</v>
       </c>
       <c r="I42" s="7">
-        <v>54113</v>
+        <v>44660</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>111</v>
       </c>
       <c r="N42" s="7">
-        <v>154393</v>
+        <v>330882</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3558,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3600,7 +3573,7 @@
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>868275</v>
+        <v>717572</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3615,7 +3588,7 @@
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1727703</v>
+        <v>1646293</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3638,46 +3611,46 @@
         <v>688</v>
       </c>
       <c r="D44" s="7">
-        <v>674421</v>
+        <v>592007</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>984</v>
       </c>
       <c r="I44" s="7">
-        <v>748842</v>
+        <v>695567</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>1672</v>
       </c>
       <c r="N44" s="7">
-        <v>1423264</v>
+        <v>1287574</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,46 +3662,46 @@
         <v>474</v>
       </c>
       <c r="D45" s="7">
-        <v>472852</v>
+        <v>440088</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>749</v>
       </c>
       <c r="I45" s="7">
-        <v>517795</v>
+        <v>466114</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>1223</v>
       </c>
       <c r="N45" s="7">
-        <v>990648</v>
+        <v>906202</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,46 +3713,46 @@
         <v>622</v>
       </c>
       <c r="D46" s="7">
-        <v>644826</v>
+        <v>628162</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>951</v>
       </c>
       <c r="I46" s="7">
-        <v>666999</v>
+        <v>612421</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>1573</v>
       </c>
       <c r="N46" s="7">
-        <v>1311825</v>
+        <v>1240583</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,46 +3764,46 @@
         <v>1590</v>
       </c>
       <c r="D47" s="7">
-        <v>1592808</v>
+        <v>1799231</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>2676</v>
       </c>
       <c r="I47" s="7">
-        <v>1898609</v>
+        <v>1935045</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M47" s="7">
         <v>4266</v>
       </c>
       <c r="N47" s="7">
-        <v>3491417</v>
+        <v>3734276</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3815,7 @@
         <v>3374</v>
       </c>
       <c r="D48" s="7">
-        <v>3384908</v>
+        <v>3459488</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3857,7 +3830,7 @@
         <v>5360</v>
       </c>
       <c r="I48" s="7">
-        <v>3832246</v>
+        <v>3709148</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3872,7 +3845,7 @@
         <v>8734</v>
       </c>
       <c r="N48" s="7">
-        <v>7217154</v>
+        <v>7168635</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3886,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
